--- a/municipal/ENG/Employment and Wages/Employed persons/Imereti/C. Kutaisi.xlsx
+++ b/municipal/ENG/Employment and Wages/Employed persons/Imereti/C. Kutaisi.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39031D94-A6D9-4626-AFD5-B0C117A2669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="31635" yWindow="2205" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kutaisi" sheetId="1" r:id="rId1"/>
@@ -22,15 +23,15 @@
     <t>Employed persons, Total</t>
   </si>
   <si>
-    <t>Employed persons of business sector in Kutaisi</t>
+    <t>Employed persons of business sector in C. Kutaisi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -118,20 +119,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -226,6 +227,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -261,6 +279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,25 +675,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2">
         <v>2014</v>
       </c>
@@ -685,31 +720,31 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>21733</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>23294.852137564001</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>23805</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>25034</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>26955</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>30569</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>27169</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>29920</v>
       </c>
     </row>
